--- a/Clase 8 Memorias/Resolucion/Salinas_Andres/Resolucion.xlsx
+++ b/Clase 8 Memorias/Resolucion/Salinas_Andres/Resolucion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\DH\Introduccion a sistemas\Github\Mochila_0921TDIIFN1C5LAED0921PT\Clase 8 Memorias\Resolucion\Salinas_Andres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB7B1AE-C969-4871-B541-1AFDB4C30C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A9458AD-E045-4409-8941-B5A09AE2E18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{27BCFFE9-C2FC-45E2-9101-B90369B4216A}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Flower 1</t>
   </si>
   <si>
-    <t>8.000 MB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Infamous: Second Son </t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>No entran</t>
+  </si>
+  <si>
+    <t>18.000 MB</t>
   </si>
 </sst>
 </file>
@@ -201,9 +201,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -528,7 +527,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -537,195 +536,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <f>460800/1024/1024</f>
         <v>0.439453125</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <f>609/1024</f>
         <v>0.5947265625</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>2760/1024</f>
         <v>2.6953125</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <f>5200/1024</f>
         <v>5.078125</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3">
+        <f>18000/1024</f>
+        <v>17.578125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <f>8000/1024</f>
-        <v>7.8125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="3">
-        <v>21.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3">
         <f>0.023438*1024</f>
         <v>24.000512000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>28.86</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>38.5</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>41</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="3">
         <f>SUM(C2:C13)</f>
-        <v>243.28062918750001</v>
+        <v>253.04625418750001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>41.85</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>48.11</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>49</v>
       </c>
     </row>
